--- a/SCBAA/2019/Region 9.xlsx
+++ b/SCBAA/2019/Region 9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18976138-3856-48E6-B94C-73C784428975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7809EB-DE4F-4FC3-BE3A-C1BC6615ABB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11655" yWindow="990" windowWidth="14910" windowHeight="12495" activeTab="3" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Zamboanga" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2750,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34F2253-6815-409D-8F88-1EAF6167736E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,7 +2883,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="50">
-        <f>6342680.53-1248443.24+465624.92</f>
         <v>5559862.21</v>
       </c>
     </row>
@@ -2888,7 +2894,6 @@
         <v>24</v>
       </c>
       <c r="E12" s="50">
-        <f>10391690.26+378000+105750+377584.04+136225+234334.63+172366.82+8601.88</f>
         <v>11804552.630000001</v>
       </c>
     </row>
@@ -2900,7 +2905,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="50">
-        <f>21500+1796818.96+770366.52</f>
         <v>2588685.48</v>
       </c>
     </row>
@@ -2912,7 +2916,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>19953100.32</v>
       </c>
     </row>
@@ -2933,7 +2936,6 @@
         <v>26</v>
       </c>
       <c r="E16" s="50">
-        <f>2496979.08+541979.5+9525+2053885.26+2308060+202245+269990+43010+74810+23470+136+172465.65</f>
         <v>8196555.4900000002</v>
       </c>
     </row>
@@ -2945,7 +2947,6 @@
         <v>27</v>
       </c>
       <c r="E17" s="50">
-        <f>232141.75+2592882.45+583184.35+18030+151750+825000+192638.06</f>
         <v>4595626.6100000003</v>
       </c>
     </row>
@@ -2968,7 +2969,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>22277197.010000002</v>
       </c>
     </row>
@@ -3159,7 +3159,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>735537561.38999999</v>
       </c>
     </row>
@@ -3736,7 +3735,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>691002526.70000005</v>
       </c>
     </row>
@@ -3911,7 +3909,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>22080262.539999999</v>
       </c>
     </row>
@@ -3923,7 +3920,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>713082789.24000001</v>
       </c>
     </row>
@@ -5135,7 +5131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1959540E-DB3D-4EA6-A1E4-65BF5C6DFF80}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
